--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="139">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,363 +43,375 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>trash</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
     <t>disappointment</t>
   </si>
   <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>low</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>might</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>lasted</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>thought</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>looked</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>fl</t>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
   <si>
     <t>parts</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>stick</t>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>color</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>product</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>need</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>put</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>looks</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>little</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>much</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>favorite</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>great</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
@@ -409,13 +421,13 @@
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -776,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,10 +796,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -845,13 +857,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -863,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -887,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -895,13 +907,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -913,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -937,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -945,13 +957,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8571428571428571</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -963,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -987,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1016,16 +1028,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K6">
         <v>0.75</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1037,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1066,16 +1078,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K7">
-        <v>0.7037037037037037</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L7">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M7">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1087,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1095,13 +1107,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.796875</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1113,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K8">
-        <v>0.6989247311827957</v>
+        <v>0.625</v>
       </c>
       <c r="L8">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1137,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1145,13 +1157,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1163,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K9">
-        <v>0.5849056603773585</v>
+        <v>0.578125</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1187,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1195,13 +1207,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7634408602150538</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C10">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1213,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K10">
-        <v>0.484375</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1237,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1245,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7524271844660194</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C11">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D11">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1263,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K11">
-        <v>0.4347826086956522</v>
+        <v>0.3631147540983606</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>443</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>443</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1287,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>39</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1295,13 +1307,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1313,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K12">
-        <v>0.3639344262295082</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="L12">
-        <v>444</v>
+        <v>25</v>
       </c>
       <c r="M12">
-        <v>444</v>
+        <v>25</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1337,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>776</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1345,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7464788732394366</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1363,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K13">
-        <v>0.3256814921090387</v>
+        <v>0.3314203730272597</v>
       </c>
       <c r="L13">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M13">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1387,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1395,13 +1407,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7241379310344828</v>
+        <v>0.72</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1413,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14">
-        <v>0.2883817427385892</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="L14">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1437,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>343</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1445,13 +1457,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.72</v>
+        <v>0.703125</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1463,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K15">
-        <v>0.2409638554216867</v>
+        <v>0.3070539419087137</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1487,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>126</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1495,13 +1507,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7090909090909091</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1513,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K16">
-        <v>0.2110091743119266</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1537,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>258</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1545,13 +1557,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6891891891891891</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C17">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1563,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K17">
-        <v>0.2083333333333333</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1587,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1595,13 +1607,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1613,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18">
-        <v>0.1746031746031746</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1637,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>156</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1645,13 +1657,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.631578947368421</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1663,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19">
-        <v>0.125</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1687,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1695,13 +1707,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6285714285714286</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1713,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20">
-        <v>0.108433734939759</v>
+        <v>0.15625</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1737,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>222</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1745,13 +1757,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6190476190476191</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1763,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K21">
-        <v>0.1021505376344086</v>
+        <v>0.1468531468531468</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1787,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>167</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1795,13 +1807,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6041666666666666</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1813,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22">
-        <v>0.09640666082383874</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L22">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="M22">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1837,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1031</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1845,13 +1857,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5714285714285714</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C23">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1863,31 +1875,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23">
-        <v>0.05584415584415584</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L23">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1454</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1895,13 +1907,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5526315789473685</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1913,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K24">
-        <v>0.05571030640668524</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="L24">
         <v>20</v>
@@ -1937,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>339</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1945,13 +1957,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5142857142857142</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1963,19 +1975,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K25">
-        <v>0.04010695187165775</v>
+        <v>0.1007887817703769</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1987,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>359</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1995,13 +2007,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5101449275362319</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2013,7 +2025,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>169</v>
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26">
+        <v>0.05027932960893855</v>
+      </c>
+      <c r="L26">
+        <v>18</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>0.95</v>
+      </c>
+      <c r="O26">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2021,13 +2057,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5060240963855421</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C27">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2039,7 +2075,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27">
+        <v>0.04802076573653472</v>
+      </c>
+      <c r="L27">
+        <v>74</v>
+      </c>
+      <c r="M27">
+        <v>74</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1467</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2047,25 +2107,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4838709677419355</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>25</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28">
+        <v>0.02005347593582888</v>
+      </c>
+      <c r="L28">
         <v>15</v>
       </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>16</v>
+      <c r="M28">
+        <v>19</v>
+      </c>
+      <c r="N28">
+        <v>0.79</v>
+      </c>
+      <c r="O28">
+        <v>0.21</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2073,13 +2157,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4814814814814815</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2091,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2099,13 +2183,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4566929133858268</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2117,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>69</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2125,13 +2209,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2143,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,13 +2235,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4421052631578947</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2169,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2177,13 +2261,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4358974358974359</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2195,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2203,13 +2287,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4285714285714285</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2221,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2229,13 +2313,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4285714285714285</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2247,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2255,13 +2339,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4285714285714285</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2273,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2281,13 +2365,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4259259259259259</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2299,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2307,13 +2391,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4186046511627907</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2325,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2333,13 +2417,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.40625</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2351,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2359,13 +2443,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3902439024390244</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2377,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2385,13 +2469,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3703703703703703</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2411,13 +2495,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3650793650793651</v>
+        <v>0.390625</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D42">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2429,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2437,13 +2521,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.35</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2455,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2463,13 +2547,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3454545454545455</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="C44">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2481,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2489,13 +2573,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3370786516853932</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2507,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2515,13 +2599,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3278688524590164</v>
+        <v>0.359375</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2541,13 +2625,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3267326732673267</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="C47">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2559,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>136</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2567,13 +2651,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3214285714285715</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2585,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2593,13 +2677,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3203125</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2611,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2619,13 +2703,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3134328358208955</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2637,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2645,13 +2729,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2663,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2671,13 +2755,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3080568720379147</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C52">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2689,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2697,13 +2781,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3035714285714285</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2715,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2723,13 +2807,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2905982905982906</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C54">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2741,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2749,13 +2833,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2680412371134021</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C55">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D55">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2767,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2775,13 +2859,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2678571428571428</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2793,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2801,13 +2885,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2653061224489796</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2819,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2827,13 +2911,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2586206896551724</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2845,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2853,13 +2937,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2463768115942029</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2871,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2879,13 +2963,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2463768115942029</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2897,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>52</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2905,13 +2989,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2368421052631579</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2923,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2931,13 +3015,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2183544303797468</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C62">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D62">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2949,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>247</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2957,13 +3041,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2133333333333333</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C63">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2975,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2983,7 +3067,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2037037037037037</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C64">
         <v>22</v>
@@ -3001,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3009,13 +3093,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2028985507246377</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C65">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3027,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>220</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3035,13 +3119,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2027027027027027</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3053,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3061,13 +3145,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2009345794392523</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3079,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>171</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3087,13 +3171,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1978021978021978</v>
+        <v>0.2</v>
       </c>
       <c r="C68">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3105,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3113,13 +3197,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1949152542372881</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D69">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3131,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>95</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3139,13 +3223,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1930379746835443</v>
+        <v>0.1974522292993631</v>
       </c>
       <c r="C70">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D70">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3157,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>255</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3165,13 +3249,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.19</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C71">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D71">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3183,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>162</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3191,13 +3275,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1857142857142857</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C72">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3209,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3217,25 +3301,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1827637444279346</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C73">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="D73">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="E73">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>550</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3243,13 +3327,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1752577319587629</v>
+        <v>0.1869436201780415</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3261,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>80</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3269,13 +3353,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1666666666666667</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C75">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3287,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>290</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3295,13 +3379,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1595744680851064</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D76">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3313,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>79</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3321,13 +3405,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.154639175257732</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3339,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3347,13 +3431,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1541850220264317</v>
+        <v>0.1779661016949153</v>
       </c>
       <c r="C78">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D78">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3365,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>384</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3373,13 +3457,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1538461538461539</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="C79">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3391,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>110</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3399,13 +3483,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1485714285714286</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C80">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D80">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3417,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3425,13 +3509,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1337579617834395</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="C81">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3443,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>136</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3451,25 +3535,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1308900523560209</v>
+        <v>0.1567328918322296</v>
       </c>
       <c r="C82">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>166</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3477,13 +3561,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.125</v>
+        <v>0.155</v>
       </c>
       <c r="C83">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3495,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>112</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3503,25 +3587,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1219512195121951</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C84">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D84">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E84">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>216</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3529,25 +3613,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1176470588235294</v>
+        <v>0.1328125</v>
       </c>
       <c r="C85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E85">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3555,25 +3639,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1145038167938931</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C86">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>116</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3581,25 +3665,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1124260355029586</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="C87">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E87">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F87">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3607,13 +3691,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1041666666666667</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3625,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3633,25 +3717,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1015037593984962</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C89">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E89">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3659,13 +3743,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0958904109589041</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="C90">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D90">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3677,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>330</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3685,13 +3769,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09574468085106383</v>
+        <v>0.1105263157894737</v>
       </c>
       <c r="C91">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E91">
         <v>0.05</v>
@@ -3703,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3711,13 +3795,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.09289617486338798</v>
+        <v>0.109375</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D92">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3729,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3737,13 +3821,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09014084507042254</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C93">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D93">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3755,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3763,25 +3847,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.08745874587458746</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C94">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E94">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F94">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>553</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3789,13 +3873,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08163265306122448</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="C95">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D95">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3807,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>180</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3815,25 +3899,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.08108108108108109</v>
+        <v>0.07605633802816901</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D96">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>170</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3867,25 +3951,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.07278481012658228</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="C98">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E98">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>293</v>
+        <v>564</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3893,25 +3977,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.066815144766147</v>
+        <v>0.07209302325581396</v>
       </c>
       <c r="C99">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3919,25 +4003,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.06279069767441861</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="C100">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D100">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E100">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="F100">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>403</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3945,25 +4029,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.06088992974238876</v>
+        <v>0.04556962025316456</v>
       </c>
       <c r="C101">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D101">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E101">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F101">
-        <v>0.9299999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>401</v>
+        <v>754</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3971,25 +4055,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.04434250764525994</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="C102">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D102">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E102">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="F102">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>625</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3997,25 +4081,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03792667509481669</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="C103">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E103">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="F103">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>761</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4023,13 +4107,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.03571428571428571</v>
+        <v>0.03373015873015873</v>
       </c>
       <c r="C104">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D104">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4041,7 +4125,33 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>486</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.03369065849923431</v>
+      </c>
+      <c r="C105">
+        <v>22</v>
+      </c>
+      <c r="D105">
+        <v>24</v>
+      </c>
+      <c r="E105">
+        <v>0.08</v>
+      </c>
+      <c r="F105">
+        <v>0.92</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
